--- a/api-instruction.xlsx
+++ b/api-instruction.xlsx
@@ -1288,6 +1288,7 @@
         <color rgb="FF00A65D"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3、AppUtils接口
 </t>
@@ -1297,6 +1298,7 @@
         <sz val="11"/>
         <rFont val="Noto Sans CJK SC Regular"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">startApp(String pkg, String clazz, String type, String title, String uri, String info)</t>
     </r>
@@ -1318,127 +1320,16 @@
     <t xml:space="preserve">浏览器</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">、命令行
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Adb shell am start -a android.intent.action.VIEW -d </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">http://www.baidu.com</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> org.chromium.chrome
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Java</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">代码
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Intent intent = new Intent("android.intent.action.VIEW");
+    <t xml:space="preserve">1、命令行
+Adb shell am start -a android.intent.action.VIEW -d http://www.baidu.com org.chromium.chrome
+2、Java代码
+Intent intent = new Intent("android.intent.action.VIEW");
 intent.setData(Uri.parse(url));
 intent.setPackage("org.chromium.chrome");
 intent.setFlags(Intent.FLAG_ACTIVITY_NEW_TASK);
 startActivity(intent);
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00A65D"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">3、AppUtils接口
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Noto Sans Mono CJK JP Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">openBrowser(String url)</t>
-    </r>
+3、AppUtils接口
+openBrowser(String url)</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1339,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1542,28 +1433,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00A65D"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans Mono CJK JP Regular"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1716,7 +1589,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1800,11 +1673,9 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B62" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
-      <selection pane="bottomRight" activeCell="C74" activeCellId="0" sqref="C74"/>
+      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3919,7 +3790,7 @@
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://www.baidu.com"/>
+    <hyperlink ref="B4" r:id="rId1" display="1、命令行&#10;Adb shell am start -a android.intent.action.VIEW -d http://www.baidu.com org.chromium.chrome&#10;2、Java代码&#10;Intent intent = new Intent(&quot;android.intent.action.VIEW&quot;);&#10;intent.setData(Uri.parse(url));&#10;intent.setPackage(&quot;org.chromium.chrome&quot;);&#10;intent.setFlags(Intent.FLAG_ACTIVITY_NEW_TASK);&#10;startActivity(intent);&#10;3、AppUtils接口&#10;openBrowser(String url)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/api-instruction.xlsx
+++ b/api-instruction.xlsx
@@ -12,6 +12,7 @@
     <sheet name="callback" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="bean" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="third" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Use Step for Callback" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="330">
   <si>
     <t xml:space="preserve">类名</t>
   </si>
@@ -220,6 +221,15 @@
     <t xml:space="preserve">获取设备信息工具类</t>
   </si>
   <si>
+    <t xml:space="preserve">getStorageUtiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageUtils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取存储工具类</t>
+  </si>
+  <si>
     <t xml:space="preserve">getWifiUtils</t>
   </si>
   <si>
@@ -262,7 +272,26 @@
     <t xml:space="preserve">ApkListener listener</t>
   </si>
   <si>
-    <t xml:space="preserve">设置应用安装或卸载回调</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">设置应用安装或卸载回调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（需要调用installApk/uninstallApl或其他方式安装/卸载应用才会有回调）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">installApk</t>
@@ -289,7 +318,26 @@
     <t xml:space="preserve">AppListener listener</t>
   </si>
   <si>
-    <t xml:space="preserve">设置应用数量回调</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">设置应用数量回调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（需要调用scanApps才会有回调）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">startApp</t>
@@ -349,6 +397,12 @@
     <t xml:space="preserve">清理内存(保留当前应用)</t>
   </si>
   <si>
+    <t xml:space="preserve">scanApps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">扫描App</t>
+  </si>
+  <si>
     <t xml:space="preserve">getAppInfos</t>
   </si>
   <si>
@@ -358,7 +412,8 @@
     <t xml:space="preserve">int count</t>
   </si>
   <si>
-    <t xml:space="preserve">获取应用列表</t>
+    <t xml:space="preserve">获取应用列表,返回的是JAppInfo数组的json数据
+index是开始获取的位置，count是从index位置往后获取的个数</t>
   </si>
   <si>
     <t xml:space="preserve">com.ssnwt.vr.androidmanager.wifi.WifiUtils</t>
@@ -367,7 +422,26 @@
     <t xml:space="preserve">WifiListener listener</t>
   </si>
   <si>
-    <t xml:space="preserve">wifi回调</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">wifi回调</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFCE181E"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">（需要调用回调对应接口才会有相应的回调）</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">resume</t>
@@ -506,6 +580,15 @@
     <t xml:space="preserve">获取当前亮度</t>
   </si>
   <si>
+    <t xml:space="preserve">openBrightness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean open</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开/关闭背光</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -673,18 +756,45 @@
     <t xml:space="preserve">getUpgradeInfo</t>
   </si>
   <si>
+    <t xml:space="preserve">UpgradeInfo</t>
+  </si>
+  <si>
     <t xml:space="preserve">获取更新信息</t>
   </si>
   <si>
     <t xml:space="preserve">installPackage</t>
   </si>
   <si>
-    <t xml:space="preserve">UpgradeInfo</t>
-  </si>
-  <si>
     <t xml:space="preserve">安装更新包</t>
   </si>
   <si>
+    <t xml:space="preserve">com.ssnwt.vr.androidmanager.StorageUtils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageListener listener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD卡插拔等事件回调</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getTotalStorageSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取内置sd卡总大小，单位Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getUsedStorageSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取内置sd卡已使用大小，单位Mb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getSDCardPath</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取外置sd卡的路径</t>
+  </si>
+  <si>
     <t xml:space="preserve">使用DEMO-wifi扫描(所有接口使用单例模式，均不需要自己实例化)</t>
   </si>
   <si>
@@ -706,7 +816,7 @@
     <t xml:space="preserve">AndroidInterface.getInstance().getWifiUtils().resume();</t>
   </si>
   <si>
-    <t xml:space="preserve">4、调用接口，结果通过回调返回</t>
+    <t xml:space="preserve">4、调用扫描接口，结果通过回调返回</t>
   </si>
   <si>
     <t xml:space="preserve">AndroidInterface.getInstance().getWifiUtils().searchWifi();</t>
@@ -957,6 +1067,24 @@
   </si>
   <si>
     <t xml:space="preserve">当前已连接wifi信号强度等级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StorageListener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.ssnwt.vr.androidmanager.StorageUtils$StorageListener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onSDCardInsert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD卡插入，返回当前SD卡路径</t>
+  </si>
+  <si>
+    <t xml:space="preserve">onSDCardRemove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SD卡移除</t>
   </si>
   <si>
     <t xml:space="preserve">参数名</t>
@@ -1339,7 +1467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1381,6 +1509,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE181E"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1439,6 +1574,22 @@
       <name val="Noto Sans Mono CJK JP Regular"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFFC66D"/>
+      <name val="DejaVu Sans Mono"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1533,19 +1684,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1557,39 +1708,39 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,7 +1757,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -1643,7 +1794,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFC66D"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -1665,17 +1816,2473 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>938520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1522440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306360" y="938520"/>
+          <a:ext cx="1598040" cy="583920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>setListener</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2655360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>977040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1560960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655360" y="977040"/>
+          <a:ext cx="1598040" cy="583920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>scanApps</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6208560</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>957960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8358840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1570320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6208560" y="957960"/>
+          <a:ext cx="2150280" cy="612360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>onAppCountChanged</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8883000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>986400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>11033280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1598760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8883000" y="986400"/>
+          <a:ext cx="2150280" cy="612360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>getAppInfos</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1220400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1354320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1904760" y="1220400"/>
+          <a:ext cx="759240" cy="133920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2113" h="376">
+              <a:moveTo>
+                <a:pt x="0" y="93"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1584" y="93"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2112" y="187"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="93"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4263840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1211040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1354320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="1211040"/>
+          <a:ext cx="1963080" cy="143280"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5457" h="402">
+              <a:moveTo>
+                <a:pt x="0" y="100"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4092" y="100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5456" y="200"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="401"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="100"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>等待扫描结束后</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>回调扫描应用个数</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8369280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1210680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8881920</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1373400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8369280" y="1210680"/>
+          <a:ext cx="512640" cy="162720"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1428" h="456">
+              <a:moveTo>
+                <a:pt x="0" y="113"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1070" y="113"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1070" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1427" y="227"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1070" y="455"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1070" y="341"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="341"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="113"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4028760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>163440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>662760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028760" y="163440"/>
+          <a:ext cx="2754360" cy="499320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Get Apps</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1108800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1604160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306360" y="3013560"/>
+          <a:ext cx="1598040" cy="495360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>setListener</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2655360</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1123200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1642680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655360" y="3027960"/>
+          <a:ext cx="1598040" cy="519480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>InstallApk</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>UninstallApk</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6198840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1146600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1606680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6198840" y="3051360"/>
+          <a:ext cx="2150280" cy="460080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>onPackageEvent</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1260720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1435680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1904760" y="3165480"/>
+          <a:ext cx="759240" cy="174960"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2113" h="376">
+              <a:moveTo>
+                <a:pt x="0" y="93"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1584" y="93"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2112" y="187"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="93"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4263840</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1284480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1471680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="3189240"/>
+          <a:ext cx="1963080" cy="187200"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5457" h="402">
+              <a:moveTo>
+                <a:pt x="0" y="100"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4092" y="100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5456" y="200"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="401"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="100"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>等待安装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>卸载结果</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4028760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>240840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>683640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028760" y="2145600"/>
+          <a:ext cx="2754360" cy="442800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Install/Uninstall apk</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1098360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1589040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306360" y="5032080"/>
+          <a:ext cx="1598040" cy="490680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>setListener</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2655360</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1112760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1627200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655360" y="5046480"/>
+          <a:ext cx="1598040" cy="514440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>searchWifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6198840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1135800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1591560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6198840" y="5069520"/>
+          <a:ext cx="2150280" cy="455760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>onSearchResult</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1248840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1422000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1904760" y="5182560"/>
+          <a:ext cx="759240" cy="173160"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2113" h="376">
+              <a:moveTo>
+                <a:pt x="0" y="93"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1584" y="93"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2112" y="187"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="93"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4263840</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1272240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1458000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="5205960"/>
+          <a:ext cx="1963080" cy="185760"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5457" h="402">
+              <a:moveTo>
+                <a:pt x="0" y="100"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4092" y="100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5456" y="200"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="401"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="100"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>等待扫描结果</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4028760</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>677160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028760" y="4172400"/>
+          <a:ext cx="2754360" cy="438480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Search Wifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1040760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1505880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306360" y="6984360"/>
+          <a:ext cx="1598040" cy="465120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>setListener</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2655360</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1054440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1542240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655360" y="6998040"/>
+          <a:ext cx="1598040" cy="487800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>openWifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>closeWifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6198840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1076400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1508400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6198840" y="7020000"/>
+          <a:ext cx="2150280" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>onOpened</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1183680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1347480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1904760" y="7127280"/>
+          <a:ext cx="759240" cy="163800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2113" h="376">
+              <a:moveTo>
+                <a:pt x="0" y="93"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1584" y="93"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2112" y="187"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="93"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4263840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1205640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1381680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="7149240"/>
+          <a:ext cx="1963080" cy="176040"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5457" h="402">
+              <a:moveTo>
+                <a:pt x="0" y="100"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4092" y="100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5456" y="200"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="401"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="100"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>等待</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Wifi</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>打开</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>关闭结果</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4028760</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>226080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>641880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028760" y="6169680"/>
+          <a:ext cx="2754360" cy="415800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Open/Close Wifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1155240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1671840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306360" y="9003600"/>
+          <a:ext cx="1598040" cy="516600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>setListener</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2655360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>958320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1827000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2655360" y="8806680"/>
+          <a:ext cx="1598040" cy="868680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>connectWifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>DisconnectWifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>forget</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6198840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1194840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1674720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6198840" y="9043200"/>
+          <a:ext cx="2150280" cy="479880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffc66d"/>
+              </a:solidFill>
+              <a:latin typeface="DejaVu Sans Mono"/>
+              <a:ea typeface="DejaVu Sans Mono"/>
+            </a:rPr>
+            <a:t>onConnecting</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1500" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1904760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1314000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1495800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1904760" y="9162360"/>
+          <a:ext cx="759240" cy="181800"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="2113" h="376">
+              <a:moveTo>
+                <a:pt x="0" y="93"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="1584" y="93"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="2112" y="187"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="375"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="1584" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="281"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="93"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4263840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1338480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1533960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4263840" y="9186840"/>
+          <a:ext cx="1963080" cy="195480"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5457" h="402">
+              <a:moveTo>
+                <a:pt x="0" y="100"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="4092" y="100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="0"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="5456" y="200"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="401"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="4092" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="300"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="0" y="100"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>等待连接</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>断开连接过程</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4028760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>250920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>712800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4028760" y="8099280"/>
+          <a:ext cx="2754360" cy="461880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Connect/Disconnect Wifi</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B62" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B38" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1927,81 +4534,81 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
+    <row r="15" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
         <v>59</v>
       </c>
@@ -2032,76 +4639,76 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C22" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>72</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G23" s="4"/>
       <c r="H23" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="67.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2111,15 +4718,11 @@
       <c r="C25" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
         <v>79</v>
@@ -2135,105 +4738,109 @@
         <v>81</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
+      <c r="E27" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>88</v>
-      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6" t="s">
+      <c r="D30" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6" t="s">
+      <c r="F30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
+      <c r="G30" s="4"/>
+      <c r="H30" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
+    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="C31" s="6" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="6" t="s">
         <v>98</v>
       </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2261,40 +4868,38 @@
       <c r="C34" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>98</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
-        <v>107</v>
-      </c>
+      <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
@@ -2305,41 +4910,41 @@
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="6"/>
+        <v>109</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" s="6"/>
+        <v>111</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>113</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -2353,579 +4958,619 @@
       <c r="C40" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>116</v>
-      </c>
+      <c r="D40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
+      <c r="G43" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="H43" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E44" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C47" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
         <v>135</v>
       </c>
+      <c r="D47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="5"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5"/>
-      <c r="B51" s="6"/>
+      <c r="B51" s="6" t="s">
+        <v>145</v>
+      </c>
       <c r="C51" s="6" t="s">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="4" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4" t="s">
+      <c r="D52" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="5"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C53" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="D53" s="6" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D54" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="5"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6" t="s">
+    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6" t="s">
+      <c r="C55" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5"/>
-      <c r="B56" s="6"/>
+      <c r="D55" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="C56" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="4" t="s">
+        <v>169</v>
+      </c>
       <c r="C61" s="4" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>170</v>
+      </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4" t="s">
-        <v>169</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>98</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D66" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>177</v>
+        <v>103</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0"/>
-    </row>
-    <row r="69" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="10" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11" t="s">
+      <c r="D68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="10" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11" t="s">
+      <c r="D69" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="10" t="s">
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="10" t="s">
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="10" t="s">
+      <c r="C71" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11" t="s">
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="10" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11" t="s">
+      <c r="D72" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="9" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="D73" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="11" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
@@ -2935,11 +5580,11 @@
     </row>
     <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B79" s="10"/>
       <c r="C79" s="11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
@@ -2949,11 +5594,11 @@
     </row>
     <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="11" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D80" s="11"/>
       <c r="E80" s="11"/>
@@ -2961,53 +5606,131 @@
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
     </row>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="10"/>
+      <c r="C81" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+    </row>
+    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="B3:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A28"/>
-    <mergeCell ref="B21:B28"/>
-    <mergeCell ref="A29:A44"/>
-    <mergeCell ref="B29:B44"/>
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="B48:B51"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="A58:A67"/>
-    <mergeCell ref="B58:B67"/>
-    <mergeCell ref="A69:H69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:H70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:H71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:H72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:H73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:H75"/>
-    <mergeCell ref="A77:H77"/>
+  <mergeCells count="40">
+    <mergeCell ref="A3:A15"/>
+    <mergeCell ref="B3:B15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:H77"/>
     <mergeCell ref="A78:B78"/>
     <mergeCell ref="C78:H78"/>
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="C79:H79"/>
     <mergeCell ref="A80:B80"/>
     <mergeCell ref="C80:H80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:H81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="A84:H84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:H86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:H87"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3024,12 +5747,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3053,19 +5776,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -3073,214 +5796,250 @@
     </row>
     <row r="2" customFormat="false" ht="183.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="12" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" s="13" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" s="13" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="202.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="12" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>245</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3302,7 +6061,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3319,10 +6078,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -3330,393 +6089,393 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="15" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="15"/>
       <c r="B3" s="16" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="15"/>
       <c r="B4" s="16" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15"/>
       <c r="B5" s="16" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="15"/>
       <c r="B6" s="16" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="15"/>
       <c r="B7" s="16" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="15"/>
       <c r="B8" s="16" t="s">
-        <v>257</v>
+        <v>280</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="15"/>
       <c r="B9" s="16" t="s">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="17" t="s">
-        <v>260</v>
+        <v>283</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>261</v>
+        <v>284</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18" t="s">
-        <v>262</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="17"/>
       <c r="B11" s="18" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18" t="s">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="17"/>
       <c r="B16" s="18" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="17"/>
       <c r="B18" s="18" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="15" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D19" s="16"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15"/>
       <c r="B20" s="16" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D20" s="16"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15"/>
       <c r="B21" s="16" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D21" s="16"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15"/>
       <c r="B22" s="16" t="s">
-        <v>282</v>
+        <v>305</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D22" s="16"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15"/>
       <c r="B23" s="16" t="s">
-        <v>283</v>
+        <v>306</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D23" s="16"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="15"/>
       <c r="B24" s="16" t="s">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D24" s="16"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="15"/>
       <c r="B25" s="16" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D25" s="16"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="15"/>
       <c r="B26" s="16" t="s">
-        <v>286</v>
+        <v>309</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D26" s="16"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="15"/>
       <c r="B27" s="16" t="s">
-        <v>287</v>
+        <v>310</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D27" s="16"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15"/>
       <c r="B28" s="16" t="s">
-        <v>288</v>
+        <v>311</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D28" s="16"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="15"/>
       <c r="B29" s="16" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D29" s="16"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15"/>
       <c r="B30" s="16" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="15"/>
       <c r="B31" s="16" t="s">
-        <v>291</v>
+        <v>314</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="15"/>
       <c r="B32" s="16" t="s">
-        <v>292</v>
+        <v>315</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="15"/>
       <c r="B33" s="16" t="s">
-        <v>293</v>
+        <v>316</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15"/>
       <c r="B34" s="16" t="s">
-        <v>294</v>
+        <v>317</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D34" s="16"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15"/>
       <c r="B35" s="16" t="s">
-        <v>295</v>
+        <v>318</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" s="16"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15"/>
       <c r="B36" s="16" t="s">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D36" s="16"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="15"/>
       <c r="B37" s="16" t="s">
-        <v>297</v>
+        <v>320</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D37" s="16"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="15"/>
       <c r="B38" s="16" t="s">
-        <v>298</v>
+        <v>321</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="D38" s="16"/>
     </row>
@@ -3744,7 +6503,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3756,34 +6515,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="20" t="s">
-        <v>299</v>
+        <v>322</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>302</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>304</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>305</v>
+        <v>328</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -3800,4 +6559,46 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="150.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.87"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="159.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="158.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="150" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="166.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/api-instruction.xlsx
+++ b/api-instruction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="352">
   <si>
     <t xml:space="preserve">类名</t>
   </si>
@@ -391,6 +391,18 @@
     <t xml:space="preserve">返回的是JAppInfo列表的json</t>
   </si>
   <si>
+    <t xml:space="preserve">getRecentApp2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayList&lt;JAppInfo&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返回的是JAppInfo列表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*</t>
+  </si>
+  <si>
     <t xml:space="preserve">cleanMemory</t>
   </si>
   <si>
@@ -414,6 +426,12 @@
   <si>
     <t xml:space="preserve">获取应用列表,返回的是JAppInfo数组的json数据
 index是开始获取的位置，count是从index位置往后获取的个数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getAppInfos2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取应用列表,返回的是JAppInfo数组</t>
   </si>
   <si>
     <t xml:space="preserve">com.ssnwt.vr.androidmanager.wifi.WifiUtils</t>
@@ -444,6 +462,15 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">setListener2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WifiListener2 listener</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wifi回调与setListener使用其中一个即可</t>
+  </si>
+  <si>
     <t xml:space="preserve">resume</t>
   </si>
   <si>
@@ -504,10 +531,16 @@
     <t xml:space="preserve">getConnectedWifi</t>
   </si>
   <si>
-    <t xml:space="preserve">String(WifiInfo)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">获取当前WIFI的信息</t>
+    <t xml:space="preserve">获取当前WIFI的信息(WifiInfo的json数据)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getConnectedWifi2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WifiInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取当前WIFI的信息(WifiInfo)</t>
   </si>
   <si>
     <t xml:space="preserve">setMaxRssiLevel</t>
@@ -712,6 +745,76 @@
   </si>
   <si>
     <t xml:space="preserve">获取wifi ip地址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openEyeProtectionMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">打开/关闭蓝光护眼模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isOpenEyeProtectionMode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否已经打开蓝光护眼模式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">openAutoBootCharging</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">打开/关闭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">充电自动开机功能</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">isOpenAutoBootCharging</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">已经</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">打开充电自动开机功能</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">com.ssnwt.vr.androidmanager.FotaUtils</t>
@@ -1069,6 +1172,18 @@
     <t xml:space="preserve">当前已连接wifi信号强度等级</t>
   </si>
   <si>
+    <t xml:space="preserve">WifiListener2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">com.ssnwt.vr.androidmanager.wifi.WifiUtils$WifiListener2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ArrayList&lt;WifiInfo&gt; wifiList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">返回的是WIFI列表（WifiInfo）</t>
+  </si>
+  <si>
     <t xml:space="preserve">StorageListener</t>
   </si>
   <si>
@@ -1127,9 +1242,6 @@
   </si>
   <si>
     <t xml:space="preserve">appType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WifiInfo</t>
   </si>
   <si>
     <t xml:space="preserve">SSID</t>
@@ -1467,7 +1579,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1522,10 +1634,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFCE181E"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1592,7 +1717,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1602,7 +1727,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -1647,7 +1778,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1680,23 +1811,31 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1708,39 +1847,51 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1769,7 +1920,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1827,9 +1978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1903320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1522440</xdr:rowOff>
+      <xdr:rowOff>1521360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1839,7 +1990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="938520"/>
-          <a:ext cx="1598040" cy="583920"/>
+          <a:ext cx="1596960" cy="582840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,9 +2045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:colOff>4252320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1560960</xdr:rowOff>
+      <xdr:rowOff>1559880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1906,7 +2057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="977040"/>
-          <a:ext cx="1598040" cy="583920"/>
+          <a:ext cx="1596960" cy="582840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1961,9 +2112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8358840</xdr:colOff>
+      <xdr:colOff>8357760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1570320</xdr:rowOff>
+      <xdr:rowOff>1569240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1973,7 +2124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6208560" y="957960"/>
-          <a:ext cx="2150280" cy="612360"/>
+          <a:ext cx="2149200" cy="611280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2028,9 +2179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11033280</xdr:colOff>
+      <xdr:colOff>11032200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1598760</xdr:rowOff>
+      <xdr:rowOff>1597680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2040,7 +2191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8883000" y="986400"/>
-          <a:ext cx="2150280" cy="612360"/>
+          <a:ext cx="2149200" cy="611280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2095,9 +2246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:colOff>2662920</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1354320</xdr:rowOff>
+      <xdr:rowOff>1353240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2107,7 +2258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="1220400"/>
-          <a:ext cx="759240" cy="133920"/>
+          <a:ext cx="758160" cy="132840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2170,9 +2321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:colOff>6225840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1354320</xdr:rowOff>
+      <xdr:rowOff>1353240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2182,7 +2333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="1211040"/>
-          <a:ext cx="1963080" cy="143280"/>
+          <a:ext cx="1962000" cy="142200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2280,9 +2431,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8881920</xdr:colOff>
+      <xdr:colOff>8880840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1373400</xdr:rowOff>
+      <xdr:rowOff>1372320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2292,7 +2443,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8369280" y="1210680"/>
-          <a:ext cx="512640" cy="162720"/>
+          <a:ext cx="511560" cy="161640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2355,9 +2506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:colOff>6782040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>662760</xdr:rowOff>
+      <xdr:rowOff>661680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2367,7 +2518,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="163440"/>
-          <a:ext cx="2754360" cy="499320"/>
+          <a:ext cx="2753280" cy="498240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2418,9 +2569,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1903320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1604160</xdr:rowOff>
+      <xdr:rowOff>1603080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2430,7 +2581,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="3013560"/>
-          <a:ext cx="1598040" cy="495360"/>
+          <a:ext cx="1596960" cy="494280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2485,9 +2636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:colOff>4252320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1642680</xdr:rowOff>
+      <xdr:rowOff>1641600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2497,7 +2648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="3027960"/>
-          <a:ext cx="1598040" cy="519480"/>
+          <a:ext cx="1596960" cy="518400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,9 +2723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:colOff>8348040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1606680</xdr:rowOff>
+      <xdr:rowOff>1605600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2584,7 +2735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="3051360"/>
-          <a:ext cx="2150280" cy="460080"/>
+          <a:ext cx="2149200" cy="459000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2639,9 +2790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:colOff>2662920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1435680</xdr:rowOff>
+      <xdr:rowOff>1434600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2651,7 +2802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="3165480"/>
-          <a:ext cx="759240" cy="174960"/>
+          <a:ext cx="758160" cy="173880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2714,9 +2865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:colOff>6225840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1471680</xdr:rowOff>
+      <xdr:rowOff>1470600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2726,7 +2877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="3189240"/>
-          <a:ext cx="1963080" cy="187200"/>
+          <a:ext cx="1962000" cy="186120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2820,9 +2971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:colOff>6782040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>683640</xdr:rowOff>
+      <xdr:rowOff>682560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2832,7 +2983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="2145600"/>
-          <a:ext cx="2754360" cy="442800"/>
+          <a:ext cx="2753280" cy="441720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,9 +3034,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1903320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1589040</xdr:rowOff>
+      <xdr:rowOff>1587960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2895,7 +3046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="5032080"/>
-          <a:ext cx="1598040" cy="490680"/>
+          <a:ext cx="1596960" cy="489600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2950,9 +3101,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:colOff>4252320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1627200</xdr:rowOff>
+      <xdr:rowOff>1626120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2962,7 +3113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="5046480"/>
-          <a:ext cx="1598040" cy="514440"/>
+          <a:ext cx="1596960" cy="513360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3017,9 +3168,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:colOff>8348040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1591560</xdr:rowOff>
+      <xdr:rowOff>1590480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3029,7 +3180,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="5069520"/>
-          <a:ext cx="2150280" cy="455760"/>
+          <a:ext cx="2149200" cy="454680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3084,9 +3235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:colOff>2662920</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1422000</xdr:rowOff>
+      <xdr:rowOff>1420920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3096,7 +3247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="5182560"/>
-          <a:ext cx="759240" cy="173160"/>
+          <a:ext cx="758160" cy="172080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3159,9 +3310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:colOff>6225840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1458000</xdr:rowOff>
+      <xdr:rowOff>1456920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3171,7 +3322,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="5205960"/>
-          <a:ext cx="1963080" cy="185760"/>
+          <a:ext cx="1962000" cy="184680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3253,9 +3404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:colOff>6782040</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>677160</xdr:rowOff>
+      <xdr:rowOff>676080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3265,7 +3416,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="4172400"/>
-          <a:ext cx="2754360" cy="438480"/>
+          <a:ext cx="2753280" cy="437400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3316,9 +3467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1903320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1505880</xdr:rowOff>
+      <xdr:rowOff>1504800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3328,7 +3479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="6984360"/>
-          <a:ext cx="1598040" cy="465120"/>
+          <a:ext cx="1596960" cy="464040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3383,9 +3534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:colOff>4252320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1542240</xdr:rowOff>
+      <xdr:rowOff>1541160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3395,7 +3546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="6998040"/>
-          <a:ext cx="1598040" cy="487800"/>
+          <a:ext cx="1596960" cy="486720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3470,9 +3621,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:colOff>8348040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1508400</xdr:rowOff>
+      <xdr:rowOff>1507320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3482,7 +3633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="7020000"/>
-          <a:ext cx="2150280" cy="432000"/>
+          <a:ext cx="2149200" cy="430920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3537,9 +3688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:colOff>2662920</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1347480</xdr:rowOff>
+      <xdr:rowOff>1346400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3549,7 +3700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="7127280"/>
-          <a:ext cx="759240" cy="163800"/>
+          <a:ext cx="758160" cy="162720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3612,9 +3763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:colOff>6225840</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1381680</xdr:rowOff>
+      <xdr:rowOff>1380600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3624,7 +3775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="7149240"/>
-          <a:ext cx="1963080" cy="176040"/>
+          <a:ext cx="1962000" cy="174960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3730,9 +3881,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:colOff>6782040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>641880</xdr:rowOff>
+      <xdr:rowOff>640800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3742,7 +3893,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="6169680"/>
-          <a:ext cx="2754360" cy="415800"/>
+          <a:ext cx="2753280" cy="414720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3793,9 +3944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1904400</xdr:colOff>
+      <xdr:colOff>1903320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1671840</xdr:rowOff>
+      <xdr:rowOff>1670760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3805,7 +3956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="9003600"/>
-          <a:ext cx="1598040" cy="516600"/>
+          <a:ext cx="1596960" cy="515520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3860,9 +4011,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4253400</xdr:colOff>
+      <xdr:colOff>4252320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1827000</xdr:rowOff>
+      <xdr:rowOff>1825920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3872,7 +4023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="8806680"/>
-          <a:ext cx="1598040" cy="868680"/>
+          <a:ext cx="1596960" cy="867600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3967,9 +4118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8349120</xdr:colOff>
+      <xdr:colOff>8348040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1674720</xdr:rowOff>
+      <xdr:rowOff>1673640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3979,7 +4130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="9043200"/>
-          <a:ext cx="2150280" cy="479880"/>
+          <a:ext cx="2149200" cy="478800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4034,9 +4185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2664000</xdr:colOff>
+      <xdr:colOff>2662920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1495800</xdr:rowOff>
+      <xdr:rowOff>1494720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4046,7 +4197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="9162360"/>
-          <a:ext cx="759240" cy="181800"/>
+          <a:ext cx="758160" cy="180720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4109,9 +4260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6226920</xdr:colOff>
+      <xdr:colOff>6225840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1533960</xdr:rowOff>
+      <xdr:rowOff>1532880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4121,7 +4272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="9186840"/>
-          <a:ext cx="1963080" cy="195480"/>
+          <a:ext cx="1962000" cy="194400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4215,9 +4366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6783120</xdr:colOff>
+      <xdr:colOff>6782040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>712800</xdr:rowOff>
+      <xdr:rowOff>711720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4227,7 +4378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="8099280"/>
-          <a:ext cx="2754360" cy="461880"/>
+          <a:ext cx="2753280" cy="460800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4277,12 +4428,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B38" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H54" activeCellId="0" sqref="H54"/>
+      <selection pane="bottomLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4654,7 +4805,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
         <v>24</v>
       </c>
@@ -4766,222 +4917,240 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>85</v>
+      </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="51.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
+      <c r="E31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31" s="4"/>
+      <c r="H31" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="4"/>
+      <c r="H32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
-        <v>112</v>
-      </c>
+      <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E41" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>121</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,249 +5160,242 @@
         <v>120</v>
       </c>
       <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
-        <v>121</v>
-      </c>
+      <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="D43" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
-        <v>128</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
+      </c>
+      <c r="I45" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="3" t="s">
+    <row r="47" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D47" s="4" t="s">
+      <c r="B51" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="4" t="s">
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="5" t="s">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B55" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="5"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="5"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="5"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4" t="s">
+      <c r="D55" s="6"/>
+      <c r="E55" s="6" t="s">
         <v>157</v>
       </c>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>158</v>
-      </c>
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -5249,7 +5411,7 @@
         <v>161</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -5264,37 +5426,45 @@
       <c r="C58" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>164</v>
+      </c>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="6" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="5"/>
-      <c r="B60" s="6"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="C60" s="6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>84</v>
@@ -5303,391 +5473,528 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="I65" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I67" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="I68" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C61" s="4" t="s">
+      <c r="B69" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C69" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4" t="s">
-        <v>185</v>
+        <v>107</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B71" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="B79" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="5"/>
-      <c r="B72" s="5"/>
-      <c r="C72" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="D79" s="6"/>
+      <c r="E79" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="5"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-    </row>
-    <row r="76" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="10" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-    </row>
-    <row r="83" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
+      <c r="A85" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" s="13"/>
+      <c r="E85" s="13"/>
+      <c r="F85" s="13"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
     </row>
     <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
+      <c r="A86" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="13"/>
+      <c r="E86" s="13"/>
+      <c r="F86" s="13"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
     </row>
     <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
+      <c r="A87" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="13"/>
+      <c r="E87" s="13"/>
+      <c r="F87" s="13"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="13"/>
+    </row>
+    <row r="88" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+    </row>
+    <row r="89" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+    </row>
+    <row r="90" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+    </row>
+    <row r="91" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+    </row>
+    <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+    </row>
+    <row r="95" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -5697,33 +6004,20 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="A33:A50"/>
+    <mergeCell ref="B33:B50"/>
     <mergeCell ref="A51:A54"/>
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="A61:A70"/>
-    <mergeCell ref="B61:B70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:H77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:H78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:H79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="C80:H80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:H81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:H82"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="A60:A68"/>
+    <mergeCell ref="B60:B68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="B79:B82"/>
     <mergeCell ref="A84:H84"/>
     <mergeCell ref="A85:B85"/>
     <mergeCell ref="C85:H85"/>
@@ -5731,6 +6025,19 @@
     <mergeCell ref="C86:H86"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="C87:H87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:H89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:H95"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5747,12 +6054,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="H15" activeCellId="0" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5776,19 +6083,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -5796,250 +6103,322 @@
     </row>
     <row r="2" customFormat="false" ht="183.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="3" s="13" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="H2" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" s="15" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>236</v>
+        <v>254</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="8" s="13" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" s="15" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="202.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="12" t="s">
-        <v>257</v>
+      <c r="H10" s="14" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>260</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>261</v>
+        <v>280</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="A13" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="203.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>268</v>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6078,406 +6457,406 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="A2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="21"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="C4" s="16" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="21"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>279</v>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>281</v>
+      <c r="D8" s="21" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="C9" s="16" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="16"/>
+      <c r="D9" s="21"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18" t="s">
-        <v>285</v>
+      <c r="A10" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18" t="s">
-        <v>287</v>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18" t="s">
-        <v>289</v>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17"/>
-      <c r="B13" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>291</v>
+      <c r="D13" s="23" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18" t="s">
-        <v>292</v>
-      </c>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>293</v>
+      <c r="D14" s="24" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18" t="s">
-        <v>294</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>295</v>
+      <c r="D15" s="24" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18" t="s">
-        <v>296</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>297</v>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>299</v>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="C18" s="18" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C18" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="23" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="20"/>
+      <c r="B20" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="21"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="21"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="20"/>
+      <c r="B24" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="21"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="21"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="20"/>
+      <c r="B26" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="20"/>
+      <c r="B27" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="20"/>
+      <c r="B30" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="20"/>
+      <c r="B31" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="21"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="21"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="21"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="C34" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="15"/>
-      <c r="B22" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="16"/>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="16" t="s">
+      <c r="D34" s="21"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="20"/>
+      <c r="B35" s="21" t="s">
+        <v>340</v>
+      </c>
+      <c r="C35" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="16"/>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="15"/>
-      <c r="B24" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="C24" s="16" t="s">
+      <c r="D35" s="21"/>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="16"/>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="15"/>
-      <c r="B26" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15"/>
-      <c r="B27" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15"/>
-      <c r="B28" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="16"/>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15"/>
-      <c r="B29" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="16"/>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="15"/>
-      <c r="B30" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="C30" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="16"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="15"/>
-      <c r="B31" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="15"/>
-      <c r="B32" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="15"/>
-      <c r="B33" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="16"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="15"/>
-      <c r="B34" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="16"/>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="15"/>
-      <c r="B35" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="16"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="15"/>
-      <c r="B36" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="21"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="15"/>
-      <c r="B37" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D37" s="16"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D37" s="21"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>278</v>
-      </c>
-      <c r="D38" s="16"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="21" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6514,35 +6893,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>323</v>
+      <c r="A1" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>325</v>
+      <c r="A2" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>327</v>
+      <c r="A3" s="25" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>329</v>
+      <c r="A4" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/api-instruction.xlsx
+++ b/api-instruction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="354">
   <si>
     <t xml:space="preserve">类名</t>
   </si>
@@ -762,59 +762,13 @@
     <t xml:space="preserve">openAutoBootCharging</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">打开/关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">充电自动开机功能</t>
-    </r>
+    <t xml:space="preserve">打开/关闭充电自动开机功能</t>
   </si>
   <si>
     <t xml:space="preserve">isOpenAutoBootCharging</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">已经</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Noto Sans CJK SC Regular"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">打开充电自动开机功能</t>
-    </r>
+    <t xml:space="preserve">是否已经打开充电自动开机功能</t>
   </si>
   <si>
     <t xml:space="preserve">com.ssnwt.vr.androidmanager.FotaUtils</t>
@@ -1346,10 +1300,16 @@
     <t xml:space="preserve">forceupgrade</t>
   </si>
   <si>
+    <t xml:space="preserve">是否强制升级(1-强制升级，0-不强制升级)</t>
+  </si>
+  <si>
     <t xml:space="preserve">pkgtype</t>
   </si>
   <si>
     <t xml:space="preserve">pkgsize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">升级包大小(单位B)</t>
   </si>
   <si>
     <t xml:space="preserve">committime</t>
@@ -1579,7 +1539,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1645,12 +1605,6 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC Regular"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
@@ -1778,7 +1732,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1820,22 +1774,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1855,43 +1805,43 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1978,9 +1928,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1903320</xdr:colOff>
+      <xdr:colOff>1902960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1521360</xdr:rowOff>
+      <xdr:rowOff>1521000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1990,7 +1940,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="938520"/>
-          <a:ext cx="1596960" cy="582840"/>
+          <a:ext cx="1596600" cy="582480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,9 +1995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4252320</xdr:colOff>
+      <xdr:colOff>4251960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1559880</xdr:rowOff>
+      <xdr:rowOff>1559520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2057,7 +2007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="977040"/>
-          <a:ext cx="1596960" cy="582840"/>
+          <a:ext cx="1596600" cy="582480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2112,9 +2062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8357760</xdr:colOff>
+      <xdr:colOff>8357400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1569240</xdr:rowOff>
+      <xdr:rowOff>1568880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2124,7 +2074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6208560" y="957960"/>
-          <a:ext cx="2149200" cy="611280"/>
+          <a:ext cx="2148840" cy="610920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,9 +2129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11032200</xdr:colOff>
+      <xdr:colOff>11031840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1597680</xdr:rowOff>
+      <xdr:rowOff>1597320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2191,7 +2141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8883000" y="986400"/>
-          <a:ext cx="2149200" cy="611280"/>
+          <a:ext cx="2148840" cy="610920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2246,9 +2196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662920</xdr:colOff>
+      <xdr:colOff>2662560</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1353240</xdr:rowOff>
+      <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2258,7 +2208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="1220400"/>
-          <a:ext cx="758160" cy="132840"/>
+          <a:ext cx="757800" cy="132480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2321,9 +2271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225840</xdr:colOff>
+      <xdr:colOff>6225480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1353240</xdr:rowOff>
+      <xdr:rowOff>1352880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2333,7 +2283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="1211040"/>
-          <a:ext cx="1962000" cy="142200"/>
+          <a:ext cx="1961640" cy="141840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2431,9 +2381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8880840</xdr:colOff>
+      <xdr:colOff>8880480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1372320</xdr:rowOff>
+      <xdr:rowOff>1371960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2443,7 +2393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8369280" y="1210680"/>
-          <a:ext cx="511560" cy="161640"/>
+          <a:ext cx="511200" cy="161280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2506,9 +2456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6782040</xdr:colOff>
+      <xdr:colOff>6781680</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>661680</xdr:rowOff>
+      <xdr:rowOff>661320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2518,7 +2468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="163440"/>
-          <a:ext cx="2753280" cy="498240"/>
+          <a:ext cx="2752920" cy="497880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,9 +2519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1903320</xdr:colOff>
+      <xdr:colOff>1902960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1603080</xdr:rowOff>
+      <xdr:rowOff>1602720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2581,7 +2531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="3013560"/>
-          <a:ext cx="1596960" cy="494280"/>
+          <a:ext cx="1596600" cy="493920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,9 +2586,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4252320</xdr:colOff>
+      <xdr:colOff>4251960</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1641600</xdr:rowOff>
+      <xdr:rowOff>1641240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2648,7 +2598,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="3027960"/>
-          <a:ext cx="1596960" cy="518400"/>
+          <a:ext cx="1596600" cy="518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2723,9 +2673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8348040</xdr:colOff>
+      <xdr:colOff>8347680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1605600</xdr:rowOff>
+      <xdr:rowOff>1605240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2735,7 +2685,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="3051360"/>
-          <a:ext cx="2149200" cy="459000"/>
+          <a:ext cx="2148840" cy="458640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2790,9 +2740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662920</xdr:colOff>
+      <xdr:colOff>2662560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1434600</xdr:rowOff>
+      <xdr:rowOff>1434240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2802,7 +2752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="3165480"/>
-          <a:ext cx="758160" cy="173880"/>
+          <a:ext cx="757800" cy="173520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2865,9 +2815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225840</xdr:colOff>
+      <xdr:colOff>6225480</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1470600</xdr:rowOff>
+      <xdr:rowOff>1470240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2877,7 +2827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="3189240"/>
-          <a:ext cx="1962000" cy="186120"/>
+          <a:ext cx="1961640" cy="185760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2971,9 +2921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6782040</xdr:colOff>
+      <xdr:colOff>6781680</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>682560</xdr:rowOff>
+      <xdr:rowOff>682200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2983,7 +2933,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="2145600"/>
-          <a:ext cx="2753280" cy="441720"/>
+          <a:ext cx="2752920" cy="441360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3034,9 +2984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1903320</xdr:colOff>
+      <xdr:colOff>1902960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1587960</xdr:rowOff>
+      <xdr:rowOff>1587600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3046,7 +2996,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="5032080"/>
-          <a:ext cx="1596960" cy="489600"/>
+          <a:ext cx="1596600" cy="489240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3101,9 +3051,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4252320</xdr:colOff>
+      <xdr:colOff>4251960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1626120</xdr:rowOff>
+      <xdr:rowOff>1625760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3113,7 +3063,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="5046480"/>
-          <a:ext cx="1596960" cy="513360"/>
+          <a:ext cx="1596600" cy="513000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3168,9 +3118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8348040</xdr:colOff>
+      <xdr:colOff>8347680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1590480</xdr:rowOff>
+      <xdr:rowOff>1590120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3180,7 +3130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="5069520"/>
-          <a:ext cx="2149200" cy="454680"/>
+          <a:ext cx="2148840" cy="454320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3235,9 +3185,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662920</xdr:colOff>
+      <xdr:colOff>2662560</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1420920</xdr:rowOff>
+      <xdr:rowOff>1420560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3247,7 +3197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="5182560"/>
-          <a:ext cx="758160" cy="172080"/>
+          <a:ext cx="757800" cy="171720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3310,9 +3260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225840</xdr:colOff>
+      <xdr:colOff>6225480</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1456920</xdr:rowOff>
+      <xdr:rowOff>1456560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3322,7 +3272,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="5205960"/>
-          <a:ext cx="1962000" cy="184680"/>
+          <a:ext cx="1961640" cy="184320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3404,9 +3354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6782040</xdr:colOff>
+      <xdr:colOff>6781680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>676080</xdr:rowOff>
+      <xdr:rowOff>675720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3416,7 +3366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="4172400"/>
-          <a:ext cx="2753280" cy="437400"/>
+          <a:ext cx="2752920" cy="437040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3467,9 +3417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1903320</xdr:colOff>
+      <xdr:colOff>1902960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1504800</xdr:rowOff>
+      <xdr:rowOff>1504440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3479,7 +3429,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="6984360"/>
-          <a:ext cx="1596960" cy="464040"/>
+          <a:ext cx="1596600" cy="463680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3534,9 +3484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4252320</xdr:colOff>
+      <xdr:colOff>4251960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1541160</xdr:rowOff>
+      <xdr:rowOff>1540800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3546,7 +3496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="6998040"/>
-          <a:ext cx="1596960" cy="486720"/>
+          <a:ext cx="1596600" cy="486360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3621,9 +3571,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8348040</xdr:colOff>
+      <xdr:colOff>8347680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1507320</xdr:rowOff>
+      <xdr:rowOff>1506960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3633,7 +3583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="7020000"/>
-          <a:ext cx="2149200" cy="430920"/>
+          <a:ext cx="2148840" cy="430560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3688,9 +3638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662920</xdr:colOff>
+      <xdr:colOff>2662560</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1346400</xdr:rowOff>
+      <xdr:rowOff>1346040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3700,7 +3650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="7127280"/>
-          <a:ext cx="758160" cy="162720"/>
+          <a:ext cx="757800" cy="162360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3763,9 +3713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225840</xdr:colOff>
+      <xdr:colOff>6225480</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1380600</xdr:rowOff>
+      <xdr:rowOff>1380240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3775,7 +3725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="7149240"/>
-          <a:ext cx="1962000" cy="174960"/>
+          <a:ext cx="1961640" cy="174600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3881,9 +3831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6782040</xdr:colOff>
+      <xdr:colOff>6781680</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>640800</xdr:rowOff>
+      <xdr:rowOff>640440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3893,7 +3843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="6169680"/>
-          <a:ext cx="2753280" cy="414720"/>
+          <a:ext cx="2752920" cy="414360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3944,9 +3894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1903320</xdr:colOff>
+      <xdr:colOff>1902960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1670760</xdr:rowOff>
+      <xdr:rowOff>1670400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3956,7 +3906,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="9003600"/>
-          <a:ext cx="1596960" cy="515520"/>
+          <a:ext cx="1596600" cy="515160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4011,9 +3961,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4252320</xdr:colOff>
+      <xdr:colOff>4251960</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1825920</xdr:rowOff>
+      <xdr:rowOff>1825560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4023,7 +3973,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="8806680"/>
-          <a:ext cx="1596960" cy="867600"/>
+          <a:ext cx="1596600" cy="867240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4118,9 +4068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8348040</xdr:colOff>
+      <xdr:colOff>8347680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1673640</xdr:rowOff>
+      <xdr:rowOff>1673280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4130,7 +4080,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="9043200"/>
-          <a:ext cx="2149200" cy="478800"/>
+          <a:ext cx="2148840" cy="478440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4185,9 +4135,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662920</xdr:colOff>
+      <xdr:colOff>2662560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1494720</xdr:rowOff>
+      <xdr:rowOff>1494360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4197,7 +4147,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="9162360"/>
-          <a:ext cx="758160" cy="180720"/>
+          <a:ext cx="757800" cy="180360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4260,9 +4210,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225840</xdr:colOff>
+      <xdr:colOff>6225480</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1532880</xdr:rowOff>
+      <xdr:rowOff>1532520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4272,7 +4222,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="9186840"/>
-          <a:ext cx="1962000" cy="194400"/>
+          <a:ext cx="1961640" cy="194040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4366,9 +4316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6782040</xdr:colOff>
+      <xdr:colOff>6781680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>711720</xdr:rowOff>
+      <xdr:rowOff>711360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4378,7 +4328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="8099280"/>
-          <a:ext cx="2753280" cy="460800"/>
+          <a:ext cx="2752920" cy="460440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4430,7 +4380,7 @@
   </sheetPr>
   <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
@@ -5590,7 +5540,7 @@
       </c>
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
-      <c r="H67" s="10" t="s">
+      <c r="H67" s="6" t="s">
         <v>185</v>
       </c>
       <c r="I67" s="8" t="s">
@@ -5846,155 +5796,155 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13" t="s">
+      <c r="B85" s="11"/>
+      <c r="C85" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
     </row>
     <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13" t="s">
+      <c r="B86" s="11"/>
+      <c r="C86" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="13"/>
-      <c r="H86" s="13"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
     </row>
     <row r="87" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13" t="s">
+      <c r="B87" s="11"/>
+      <c r="C87" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="13"/>
-      <c r="H87" s="13"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="12"/>
     </row>
     <row r="88" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13" t="s">
+      <c r="B88" s="11"/>
+      <c r="C88" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="13"/>
-      <c r="H88" s="13"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="12"/>
     </row>
     <row r="89" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13" t="s">
+      <c r="B89" s="11"/>
+      <c r="C89" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="13"/>
-      <c r="H89" s="13"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
     </row>
     <row r="90" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13" t="s">
+      <c r="B90" s="11"/>
+      <c r="C90" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="13"/>
-      <c r="H90" s="13"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="12"/>
     </row>
     <row r="91" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="92" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13" t="s">
+      <c r="B93" s="11"/>
+      <c r="C93" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="D93" s="13"/>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="13"/>
-      <c r="H93" s="13"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
     </row>
     <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13" t="s">
+      <c r="B94" s="11"/>
+      <c r="C94" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="D94" s="13"/>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="13"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
     </row>
     <row r="95" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13" t="s">
+      <c r="B95" s="11"/>
+      <c r="C95" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="D95" s="13"/>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="13"/>
-      <c r="H95" s="13"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -6121,11 +6071,11 @@
         <v>242</v>
       </c>
       <c r="G2" s="6"/>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="3" s="15" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="14" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>244</v>
       </c>
@@ -6167,7 +6117,7 @@
       <c r="G4" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>255</v>
       </c>
     </row>
@@ -6217,7 +6167,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="14" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
         <v>264</v>
       </c>
@@ -6269,7 +6219,7 @@
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>276</v>
       </c>
     </row>
@@ -6306,72 +6256,72 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="203.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18" t="s">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17" t="s">
         <v>277</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="18" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17" t="s">
         <v>280</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17" t="s">
         <v>281</v>
       </c>
     </row>
@@ -6437,10 +6387,10 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6467,396 +6417,400 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="20"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20" t="s">
         <v>296</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="21"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20" t="s">
         <v>299</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20" t="s">
         <v>300</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20" t="s">
         <v>305</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="21"/>
+      <c r="D9" s="20"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>306</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="22" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="22" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22" t="s">
         <v>320</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="22" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="22" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="21"/>
+      <c r="D19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
         <v>325</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="21"/>
+      <c r="D20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20" t="s">
         <v>326</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
         <v>327</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D23" s="21"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
         <v>329</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="21"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
         <v>330</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="21"/>
+      <c r="D25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
         <v>331</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="21"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20" t="s">
         <v>332</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D27" s="21"/>
+      <c r="D27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
         <v>333</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="21"/>
+      <c r="D28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="21"/>
+      <c r="D29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="21"/>
+      <c r="D30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="21"/>
+      <c r="D31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21" t="s">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="21"/>
+      <c r="D32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21" t="s">
+      <c r="D33" s="20"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20" t="s">
         <v>339</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D34" s="21"/>
+      <c r="D34" s="20" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="C35" s="21" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20" t="s">
+        <v>341</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21" t="s">
-        <v>341</v>
-      </c>
-      <c r="C36" s="21" t="s">
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20" t="s">
+        <v>342</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="21"/>
+      <c r="D36" s="20" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="C37" s="21" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D37" s="21"/>
+      <c r="D37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="C38" s="21" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C38" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="D38" s="21"/>
+      <c r="D38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6893,35 +6847,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="25" t="s">
-        <v>344</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>345</v>
+      <c r="A1" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="25" t="s">
-        <v>346</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>347</v>
+      <c r="A2" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>349</v>
+      <c r="A3" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>350</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>351</v>
+      <c r="A4" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/api-instruction.xlsx
+++ b/api-instruction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="357">
   <si>
     <t xml:space="preserve">类名</t>
   </si>
@@ -816,7 +816,13 @@
     <t xml:space="preserve">UpgradeInfo</t>
   </si>
   <si>
-    <t xml:space="preserve">获取更新信息</t>
+    <t xml:space="preserve">获取更新信息，只能在下载过程中才能获取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getPackageSize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取安装包大小，单位B</t>
   </si>
   <si>
     <t xml:space="preserve">installPackage</t>
@@ -1250,6 +1256,45 @@
   </si>
   <si>
     <t xml:space="preserve">Enabled=0,Saved=1,Using=2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans CJK SC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UpgradeInfo
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Noto Sans Mono CJK TC Regular"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">com.skyworthdigital.upgrade.port.UpgradeInfo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val=""/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -1539,7 +1584,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1629,6 +1674,18 @@
     <font>
       <sz val="11"/>
       <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val=""/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Noto Sans Mono CJK TC Regular"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1732,7 +1789,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1829,11 +1886,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1841,7 +1902,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1928,9 +1989,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1902960</xdr:colOff>
+      <xdr:colOff>1902600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1521000</xdr:rowOff>
+      <xdr:rowOff>1520640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1940,7 +2001,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="938520"/>
-          <a:ext cx="1596600" cy="582480"/>
+          <a:ext cx="1596240" cy="582120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,9 +2056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4251960</xdr:colOff>
+      <xdr:colOff>4251600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1559520</xdr:rowOff>
+      <xdr:rowOff>1559160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2007,7 +2068,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="977040"/>
-          <a:ext cx="1596600" cy="582480"/>
+          <a:ext cx="1596240" cy="582120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2062,9 +2123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8357400</xdr:colOff>
+      <xdr:colOff>8357040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1568880</xdr:rowOff>
+      <xdr:rowOff>1568520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2074,7 +2135,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6208560" y="957960"/>
-          <a:ext cx="2148840" cy="610920"/>
+          <a:ext cx="2148480" cy="610560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2129,9 +2190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>11031840</xdr:colOff>
+      <xdr:colOff>11031480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1597320</xdr:rowOff>
+      <xdr:rowOff>1596960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2141,7 +2202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8883000" y="986400"/>
-          <a:ext cx="2148840" cy="610920"/>
+          <a:ext cx="2148480" cy="610560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2196,9 +2257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662560</xdr:colOff>
+      <xdr:colOff>2662200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1352880</xdr:rowOff>
+      <xdr:rowOff>1352520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2208,7 +2269,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="1220400"/>
-          <a:ext cx="757800" cy="132480"/>
+          <a:ext cx="757440" cy="132120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2271,9 +2332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225480</xdr:colOff>
+      <xdr:colOff>6225120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1352880</xdr:rowOff>
+      <xdr:rowOff>1352520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2283,7 +2344,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="1211040"/>
-          <a:ext cx="1961640" cy="141840"/>
+          <a:ext cx="1961280" cy="141480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2381,9 +2442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8880480</xdr:colOff>
+      <xdr:colOff>8880120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1371960</xdr:rowOff>
+      <xdr:rowOff>1371600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2393,7 +2454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8369280" y="1210680"/>
-          <a:ext cx="511200" cy="161280"/>
+          <a:ext cx="510840" cy="160920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2456,9 +2517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6781680</xdr:colOff>
+      <xdr:colOff>6781320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>661320</xdr:rowOff>
+      <xdr:rowOff>660960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2468,7 +2529,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="163440"/>
-          <a:ext cx="2752920" cy="497880"/>
+          <a:ext cx="2752560" cy="497520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,9 +2580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1902960</xdr:colOff>
+      <xdr:colOff>1902600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1602720</xdr:rowOff>
+      <xdr:rowOff>1602360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2531,7 +2592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="3013560"/>
-          <a:ext cx="1596600" cy="493920"/>
+          <a:ext cx="1596240" cy="493560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2586,9 +2647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4251960</xdr:colOff>
+      <xdr:colOff>4251600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1641240</xdr:rowOff>
+      <xdr:rowOff>1640880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2598,7 +2659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="3027960"/>
-          <a:ext cx="1596600" cy="518040"/>
+          <a:ext cx="1596240" cy="517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2673,9 +2734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8347680</xdr:colOff>
+      <xdr:colOff>8347320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1605240</xdr:rowOff>
+      <xdr:rowOff>1604880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2685,7 +2746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="3051360"/>
-          <a:ext cx="2148840" cy="458640"/>
+          <a:ext cx="2148480" cy="458280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2740,9 +2801,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662560</xdr:colOff>
+      <xdr:colOff>2662200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1434240</xdr:rowOff>
+      <xdr:rowOff>1433880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2752,7 +2813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="3165480"/>
-          <a:ext cx="757800" cy="173520"/>
+          <a:ext cx="757440" cy="173160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2815,9 +2876,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225480</xdr:colOff>
+      <xdr:colOff>6225120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1470240</xdr:rowOff>
+      <xdr:rowOff>1469880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2827,7 +2888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="3189240"/>
-          <a:ext cx="1961640" cy="185760"/>
+          <a:ext cx="1961280" cy="185400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2921,9 +2982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6781680</xdr:colOff>
+      <xdr:colOff>6781320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>682200</xdr:rowOff>
+      <xdr:rowOff>681840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2933,7 +2994,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="2145600"/>
-          <a:ext cx="2752920" cy="441360"/>
+          <a:ext cx="2752560" cy="441000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2984,9 +3045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1902960</xdr:colOff>
+      <xdr:colOff>1902600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1587600</xdr:rowOff>
+      <xdr:rowOff>1587240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2996,7 +3057,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="5032080"/>
-          <a:ext cx="1596600" cy="489240"/>
+          <a:ext cx="1596240" cy="488880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3051,9 +3112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4251960</xdr:colOff>
+      <xdr:colOff>4251600</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1625760</xdr:rowOff>
+      <xdr:rowOff>1625400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3063,7 +3124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="5046480"/>
-          <a:ext cx="1596600" cy="513000"/>
+          <a:ext cx="1596240" cy="512640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3118,9 +3179,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8347680</xdr:colOff>
+      <xdr:colOff>8347320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1590120</xdr:rowOff>
+      <xdr:rowOff>1589760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3130,7 +3191,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="5069520"/>
-          <a:ext cx="2148840" cy="454320"/>
+          <a:ext cx="2148480" cy="453960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3185,9 +3246,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662560</xdr:colOff>
+      <xdr:colOff>2662200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1420560</xdr:rowOff>
+      <xdr:rowOff>1420200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3197,7 +3258,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="5182560"/>
-          <a:ext cx="757800" cy="171720"/>
+          <a:ext cx="757440" cy="171360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3260,9 +3321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225480</xdr:colOff>
+      <xdr:colOff>6225120</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>1456560</xdr:rowOff>
+      <xdr:rowOff>1456200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3272,7 +3333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="5205960"/>
-          <a:ext cx="1961640" cy="184320"/>
+          <a:ext cx="1961280" cy="183960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3354,9 +3415,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6781680</xdr:colOff>
+      <xdr:colOff>6781320</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>675720</xdr:rowOff>
+      <xdr:rowOff>675360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3366,7 +3427,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="4172400"/>
-          <a:ext cx="2752920" cy="437040"/>
+          <a:ext cx="2752560" cy="436680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3417,9 +3478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1902960</xdr:colOff>
+      <xdr:colOff>1902600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1504440</xdr:rowOff>
+      <xdr:rowOff>1504080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3429,7 +3490,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="6984360"/>
-          <a:ext cx="1596600" cy="463680"/>
+          <a:ext cx="1596240" cy="463320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3484,9 +3545,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4251960</xdr:colOff>
+      <xdr:colOff>4251600</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1540800</xdr:rowOff>
+      <xdr:rowOff>1540440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3496,7 +3557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="6998040"/>
-          <a:ext cx="1596600" cy="486360"/>
+          <a:ext cx="1596240" cy="486000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3571,9 +3632,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8347680</xdr:colOff>
+      <xdr:colOff>8347320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1506960</xdr:rowOff>
+      <xdr:rowOff>1506600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3583,7 +3644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="7020000"/>
-          <a:ext cx="2148840" cy="430560"/>
+          <a:ext cx="2148480" cy="430200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3638,9 +3699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662560</xdr:colOff>
+      <xdr:colOff>2662200</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1346040</xdr:rowOff>
+      <xdr:rowOff>1345680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3650,7 +3711,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="7127280"/>
-          <a:ext cx="757800" cy="162360"/>
+          <a:ext cx="757440" cy="162000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3713,9 +3774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225480</xdr:colOff>
+      <xdr:colOff>6225120</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>1380240</xdr:rowOff>
+      <xdr:rowOff>1379880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3725,7 +3786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="7149240"/>
-          <a:ext cx="1961640" cy="174600"/>
+          <a:ext cx="1961280" cy="174240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3831,9 +3892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6781680</xdr:colOff>
+      <xdr:colOff>6781320</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>640440</xdr:rowOff>
+      <xdr:rowOff>640080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3843,7 +3904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="6169680"/>
-          <a:ext cx="2752920" cy="414360"/>
+          <a:ext cx="2752560" cy="414000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3894,9 +3955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1902960</xdr:colOff>
+      <xdr:colOff>1902600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1670400</xdr:rowOff>
+      <xdr:rowOff>1670040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3906,7 +3967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="306360" y="9003600"/>
-          <a:ext cx="1596600" cy="515160"/>
+          <a:ext cx="1596240" cy="514800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3961,9 +4022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>4251960</xdr:colOff>
+      <xdr:colOff>4251600</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1825560</xdr:rowOff>
+      <xdr:rowOff>1825200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3973,7 +4034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2655360" y="8806680"/>
-          <a:ext cx="1596600" cy="867240"/>
+          <a:ext cx="1596240" cy="866880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4068,9 +4129,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8347680</xdr:colOff>
+      <xdr:colOff>8347320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1673280</xdr:rowOff>
+      <xdr:rowOff>1672920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4080,7 +4141,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6198840" y="9043200"/>
-          <a:ext cx="2148840" cy="478440"/>
+          <a:ext cx="2148480" cy="478080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4135,9 +4196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2662560</xdr:colOff>
+      <xdr:colOff>2662200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1494360</xdr:rowOff>
+      <xdr:rowOff>1494000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4147,7 +4208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904760" y="9162360"/>
-          <a:ext cx="757800" cy="180360"/>
+          <a:ext cx="757440" cy="180000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4210,9 +4271,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6225480</xdr:colOff>
+      <xdr:colOff>6225120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>1532520</xdr:rowOff>
+      <xdr:rowOff>1532160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4222,7 +4283,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4263840" y="9186840"/>
-          <a:ext cx="1961640" cy="194040"/>
+          <a:ext cx="1961280" cy="193680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4316,9 +4377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6781680</xdr:colOff>
+      <xdr:colOff>6781320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>711360</xdr:rowOff>
+      <xdr:rowOff>711000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4328,7 +4389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4028760" y="8099280"/>
-          <a:ext cx="2752920" cy="460440"/>
+          <a:ext cx="2752560" cy="460080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4378,12 +4439,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B35" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H58" activeCellId="0" sqref="H58"/>
+      <selection pane="bottomLeft" activeCell="J80" activeCellId="0" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5563,7 +5624,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="3" t="s">
         <v>39</v>
       </c>
@@ -5703,57 +5764,60 @@
         <v>203</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
+      <c r="I78" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B79" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="C79" s="6" t="s">
+      <c r="B80" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="5"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="6"/>
+      <c r="E80" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E80" s="6"/>
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="5"/>
       <c r="B81" s="5"/>
       <c r="C81" s="6" t="s">
@@ -5769,14 +5833,14 @@
         <v>212</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="6" t="s">
         <v>213</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -5785,41 +5849,43 @@
         <v>214</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
+    <row r="83" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="11" t="s">
+      <c r="H83" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+    </row>
+    <row r="85" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="11" t="s">
@@ -5891,40 +5957,40 @@
       <c r="G90" s="12"/>
       <c r="H90" s="12"/>
     </row>
-    <row r="91" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="10" t="s">
+    <row r="91" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+    </row>
+    <row r="92" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="12" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
@@ -5938,13 +6004,27 @@
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="12" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
       <c r="H95" s="12"/>
+    </row>
+    <row r="96" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B96" s="11"/>
+      <c r="C96" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -5964,13 +6044,11 @@
     <mergeCell ref="B55:B58"/>
     <mergeCell ref="A60:A68"/>
     <mergeCell ref="B60:B68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A84:H84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="A69:A79"/>
+    <mergeCell ref="B69:B79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="B80:B83"/>
+    <mergeCell ref="A85:H85"/>
     <mergeCell ref="A86:B86"/>
     <mergeCell ref="C86:H86"/>
     <mergeCell ref="A87:B87"/>
@@ -5981,13 +6059,15 @@
     <mergeCell ref="C89:H89"/>
     <mergeCell ref="A90:B90"/>
     <mergeCell ref="C90:H90"/>
-    <mergeCell ref="A92:H92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:H93"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:H91"/>
+    <mergeCell ref="A93:H93"/>
     <mergeCell ref="A94:B94"/>
     <mergeCell ref="C94:H94"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C95:H95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:H96"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6033,19 +6113,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>7</v>
@@ -6053,37 +6133,37 @@
     </row>
     <row r="2" customFormat="false" ht="183.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" s="14" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>97</v>
@@ -6092,158 +6172,158 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="71.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" s="14" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="202.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>132</v>
@@ -6252,68 +6332,68 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
       <c r="H13" s="17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="203.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="16"/>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="18" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>132</v>
@@ -6322,18 +6402,18 @@
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>63</v>
@@ -6342,21 +6422,21 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -6387,10 +6467,10 @@
   </sheetPr>
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6407,10 +6487,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
@@ -6418,10 +6498,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="19" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>84</v>
@@ -6431,7 +6511,7 @@
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="19"/>
       <c r="B3" s="20" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>84</v>
@@ -6441,7 +6521,7 @@
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="19"/>
       <c r="B4" s="20" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>84</v>
@@ -6451,7 +6531,7 @@
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="19"/>
       <c r="B5" s="20" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>84</v>
@@ -6461,7 +6541,7 @@
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="19"/>
       <c r="B6" s="20" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C6" s="20" t="s">
         <v>52</v>
@@ -6471,31 +6551,31 @@
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="19"/>
       <c r="B7" s="20" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C8" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="19"/>
       <c r="B9" s="20" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>52</v>
@@ -6507,111 +6587,111 @@
         <v>129</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21"/>
       <c r="B11" s="22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="22" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21"/>
       <c r="B12" s="22" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C12" s="22"/>
       <c r="D12" s="22" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21"/>
       <c r="B13" s="22" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21"/>
       <c r="B14" s="22" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21"/>
       <c r="B15" s="22" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21"/>
       <c r="B16" s="22" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>112</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21"/>
       <c r="B17" s="22" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>112</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21"/>
       <c r="B18" s="22" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19" t="s">
-        <v>202</v>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>326</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>52</v>
@@ -6619,9 +6699,9 @@
       <c r="D19" s="20"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>84</v>
@@ -6629,9 +6709,9 @@
       <c r="D20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="20" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>84</v>
@@ -6639,9 +6719,9 @@
       <c r="D21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="20" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C22" s="20" t="s">
         <v>84</v>
@@ -6649,9 +6729,9 @@
       <c r="D22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="20" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="C23" s="20" t="s">
         <v>52</v>
@@ -6659,9 +6739,9 @@
       <c r="D23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="20" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>52</v>
@@ -6669,9 +6749,9 @@
       <c r="D24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>52</v>
@@ -6679,9 +6759,9 @@
       <c r="D25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="C26" s="20" t="s">
         <v>52</v>
@@ -6689,19 +6769,19 @@
       <c r="D26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="20" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="20" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C28" s="20" t="s">
         <v>84</v>
@@ -6709,9 +6789,9 @@
       <c r="D28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>84</v>
@@ -6719,9 +6799,9 @@
       <c r="D29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="20" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>84</v>
@@ -6729,9 +6809,9 @@
       <c r="D30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>84</v>
@@ -6739,9 +6819,9 @@
       <c r="D31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C32" s="20" t="s">
         <v>84</v>
@@ -6749,9 +6829,9 @@
       <c r="D32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="20" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>84</v>
@@ -6759,21 +6839,21 @@
       <c r="D33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="20" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C34" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="20" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C35" s="20" t="s">
         <v>52</v>
@@ -6781,34 +6861,34 @@
       <c r="D35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="20" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="C36" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D36" s="20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="20" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="20" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D38" s="20"/>
     </row>
@@ -6847,35 +6927,35 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>347</v>
+      <c r="A1" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="216" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="B2" s="25" t="s">
-        <v>349</v>
+      <c r="A2" s="25" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="117" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>351</v>
+      <c r="A3" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="166.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>353</v>
+      <c r="A4" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/api-instruction.xlsx
+++ b/api-instruction.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11325" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="11280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="api" sheetId="1" r:id="rId1"/>
@@ -706,13 +706,13 @@
     <t>openAutoBootCharging</t>
   </si>
   <si>
-    <t>打开/关闭充电自动开机功能</t>
+    <t>打开/关闭充电自动开机功能(定制功能，C端版本不支持该功能，如需要请联系销售人员)</t>
   </si>
   <si>
     <t>isOpenAutoBootCharging</t>
   </si>
   <si>
-    <t>是否已经打开充电自动开机功能</t>
+    <t>是否已经打开充电自动开机功能(定制功能，C端版本不支持该功能，如需要请联系销售人员)</t>
   </si>
   <si>
     <t>shutdown</t>
@@ -1735,11 +1735,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1812,19 +1812,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1840,33 +1827,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1893,24 +1863,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1924,24 +1887,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1961,8 +1915,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1981,12 +1981,6 @@
       <sz val="11"/>
       <color rgb="FFCE181E"/>
       <name val="Noto Sans CJK SC Regular"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -2017,43 +2011,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,79 +2035,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,7 +2065,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2167,31 +2173,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2229,61 +2223,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2304,6 +2248,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2317,141 +2276,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5542,10 +5536,10 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C78" sqref="C78"/>
+      <selection pane="bottomLeft" activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="64.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13" style="27" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
@@ -6113,7 +6107,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" ht="37.5" spans="1:8">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19" t="s">
@@ -7537,7 +7531,7 @@
       <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="64.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="14.1" customWidth="1"/>
     <col min="2" max="2" width="57.6" customWidth="1"/>
@@ -7994,7 +7988,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" ht="56.25" spans="1:8">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="19" t="s">
@@ -8080,7 +8074,7 @@
       <selection pane="bottomLeft" activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="64.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="13.7" customWidth="1"/>
     <col min="2" max="2" width="12.8" customWidth="1"/>
@@ -8624,10 +8618,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="64.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.26" customWidth="1"/>
-    <col min="2" max="2" width="153.306666666667" customWidth="1"/>
+    <col min="1" max="1" width="17.2583333333333" customWidth="1"/>
+    <col min="2" max="2" width="153.308333333333" customWidth="1"/>
     <col min="3" max="1025" width="10.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8639,7 +8633,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" ht="335.25" spans="1:2">
+    <row r="2" ht="243.75" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>421</v>
       </c>
@@ -8685,9 +8679,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="64.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="150.426666666667" customWidth="1"/>
+    <col min="1" max="1" width="150.425" customWidth="1"/>
     <col min="2" max="1025" width="10.8666666666667" customWidth="1"/>
   </cols>
   <sheetData>
